--- a/damage_nuclear.xlsx
+++ b/damage_nuclear.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beste\Documents\GitHub\TCRiskIndia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41AAD0E-7F4A-47A7-8B59-CD03B1167CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +25,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,38 +64,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +122,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,7 +156,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,10 +190,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,22 +365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -435,289 +398,289 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>138505.81620224181</v>
-      </c>
-      <c r="B5" s="2">
-        <v>138505.81620224181</v>
-      </c>
-      <c r="C5" s="2">
-        <v>138505.81620224181</v>
-      </c>
-      <c r="D5" s="2">
-        <v>138505.81620224181</v>
-      </c>
-      <c r="E5" s="2">
-        <v>319607.41678772232</v>
-      </c>
-      <c r="F5" s="2">
-        <v>319607.41678772232</v>
-      </c>
-      <c r="G5" s="2">
-        <v>152350647.7621164</v>
-      </c>
-      <c r="H5" s="2">
-        <v>392403143.2205109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5520657.6090659508</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6779438.9496214231</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6788902.4394467603</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6788902.4394467603</v>
-      </c>
-      <c r="E6" s="2">
-        <v>24233476.476929229</v>
-      </c>
-      <c r="F6" s="2">
-        <v>541234653.13836265</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1184533205.69363</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1840769325.6140771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>391129.22941554087</v>
-      </c>
-      <c r="D7" s="2">
-        <v>391129.22941554087</v>
-      </c>
-      <c r="E7" s="2">
-        <v>391129.22941554087</v>
-      </c>
-      <c r="F7" s="2">
-        <v>132905858.2556968</v>
-      </c>
-      <c r="G7" s="2">
-        <v>192450139.25861329</v>
-      </c>
-      <c r="H7" s="2">
-        <v>240916994.72374019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2424672.8219017661</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2977529.5866737291</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2981685.9514050172</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2981685.9514050172</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10643342.868667319</v>
-      </c>
-      <c r="F8" s="2">
-        <v>237710259.65836889</v>
-      </c>
-      <c r="G8" s="2">
-        <v>520246983.9406423</v>
-      </c>
-      <c r="H8" s="2">
-        <v>808465887.80970323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>177600.3329744932</v>
+      </c>
+      <c r="B5">
+        <v>177600.3329744932</v>
+      </c>
+      <c r="C5">
+        <v>177600.3329744932</v>
+      </c>
+      <c r="D5">
+        <v>177600.3329744932</v>
+      </c>
+      <c r="E5">
+        <v>409819.4949426127</v>
+      </c>
+      <c r="F5">
+        <v>409819.4949426127</v>
+      </c>
+      <c r="G5">
+        <v>183351325.8300121</v>
+      </c>
+      <c r="H5">
+        <v>481328137.0194447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>7066810.065359957</v>
+      </c>
+      <c r="B6">
+        <v>8679654.472805411</v>
+      </c>
+      <c r="C6">
+        <v>8691789.118051112</v>
+      </c>
+      <c r="D6">
+        <v>8691789.118051112</v>
+      </c>
+      <c r="E6">
+        <v>30949265.02263438</v>
+      </c>
+      <c r="F6">
+        <v>613829536.1436694</v>
+      </c>
+      <c r="G6">
+        <v>1370885811.140227</v>
+      </c>
+      <c r="H6">
+        <v>2195630326.676313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>501528.9847382788</v>
+      </c>
+      <c r="D7">
+        <v>501528.9847382788</v>
+      </c>
+      <c r="E7">
+        <v>501528.9847382788</v>
+      </c>
+      <c r="F7">
+        <v>166640438.8502121</v>
+      </c>
+      <c r="G7">
+        <v>242490686.2445441</v>
+      </c>
+      <c r="H7">
+        <v>304409224.3248577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>3103742.980706093</v>
+      </c>
+      <c r="B8">
+        <v>3812104.244456136</v>
+      </c>
+      <c r="C8">
+        <v>3817433.780648048</v>
+      </c>
+      <c r="D8">
+        <v>3817433.780648048</v>
+      </c>
+      <c r="E8">
+        <v>13592917.19794102</v>
+      </c>
+      <c r="F8">
+        <v>269593932.2742996</v>
+      </c>
+      <c r="G8">
+        <v>602093048.2527875</v>
+      </c>
+      <c r="H8">
+        <v>964320839.4762363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
